--- a/po_analysis_by_asin/B0CV2SCH63_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2SCH63_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>120</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>12</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>26</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>14</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>26</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>6</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>38</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>114</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>72</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>34</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>135</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>15</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>52</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>88</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>114</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>72</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>34</v>

--- a/po_analysis_by_asin/B0CV2SCH63_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2SCH63_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -687,6 +688,425 @@
       </c>
       <c r="B8" t="n">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-27.12848536788906</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.268635485931</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-24.89970585588263</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.86101957473404</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-26.0983964814338</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.98630118097456</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-25.28987393518931</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.6410132474995</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-23.13842680542123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67.10635091518617</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-23.48217757148709</v>
+      </c>
+      <c r="D7" t="n">
+        <v>65.46821958965371</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-21.2476093949539</v>
+      </c>
+      <c r="D8" t="n">
+        <v>68.19567131024151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-17.29852123269536</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.23296113937573</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-20.60376964184662</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70.58581555609932</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-16.74460266930739</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71.82632753207119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-14.32877993647813</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70.77597425706176</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-14.98178647506619</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73.21488194057063</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13.90531761314544</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.94385686426919</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-12.83989271506105</v>
+      </c>
+      <c r="D15" t="n">
+        <v>77.3820528008935</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.57561221294719</v>
+      </c>
+      <c r="D16" t="n">
+        <v>75.94951563564125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-10.44368536844111</v>
+      </c>
+      <c r="D17" t="n">
+        <v>78.45223969845455</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.692426815856695</v>
+      </c>
+      <c r="D18" t="n">
+        <v>82.83392324319267</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4.935037193975331</v>
+      </c>
+      <c r="D19" t="n">
+        <v>82.19782239226636</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.01254704164976103</v>
+      </c>
+      <c r="D20" t="n">
+        <v>87.52179427689703</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.2329252439527258</v>
+      </c>
+      <c r="D21" t="n">
+        <v>86.95515888339557</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.787039643170443</v>
+      </c>
+      <c r="D22" t="n">
+        <v>89.8833937087519</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>46</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.656492289023299</v>
+      </c>
+      <c r="D23" t="n">
+        <v>90.39751129701759</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>47</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.636410044808433</v>
+      </c>
+      <c r="D24" t="n">
+        <v>93.53662739287346</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>48</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.203478211892017</v>
+      </c>
+      <c r="D25" t="n">
+        <v>93.4191313007082</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>49</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.36945653843658</v>
+      </c>
+      <c r="D26" t="n">
+        <v>92.86456735283494</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.41886036809309</v>
+      </c>
+      <c r="D27" t="n">
+        <v>91.96687802574476</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>51</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.036771827386374</v>
+      </c>
+      <c r="D28" t="n">
+        <v>96.37047019007309</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CV2SCH63_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2SCH63_po_data.xlsx
@@ -701,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,16 +720,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -738,12 +728,6 @@
       <c r="B2" t="n">
         <v>16</v>
       </c>
-      <c r="C2" t="n">
-        <v>-27.12848536788906</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.268635485931</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -752,12 +736,6 @@
       <c r="B3" t="n">
         <v>17</v>
       </c>
-      <c r="C3" t="n">
-        <v>-24.89970585588263</v>
-      </c>
-      <c r="D3" t="n">
-        <v>62.86101957473404</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -766,12 +744,6 @@
       <c r="B4" t="n">
         <v>19</v>
       </c>
-      <c r="C4" t="n">
-        <v>-26.0983964814338</v>
-      </c>
-      <c r="D4" t="n">
-        <v>61.98630118097456</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -780,12 +752,6 @@
       <c r="B5" t="n">
         <v>20</v>
       </c>
-      <c r="C5" t="n">
-        <v>-25.28987393518931</v>
-      </c>
-      <c r="D5" t="n">
-        <v>61.6410132474995</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -794,12 +760,6 @@
       <c r="B6" t="n">
         <v>21</v>
       </c>
-      <c r="C6" t="n">
-        <v>-23.13842680542123</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67.10635091518617</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -808,12 +768,6 @@
       <c r="B7" t="n">
         <v>22</v>
       </c>
-      <c r="C7" t="n">
-        <v>-23.48217757148709</v>
-      </c>
-      <c r="D7" t="n">
-        <v>65.46821958965371</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -822,12 +776,6 @@
       <c r="B8" t="n">
         <v>23</v>
       </c>
-      <c r="C8" t="n">
-        <v>-21.2476093949539</v>
-      </c>
-      <c r="D8" t="n">
-        <v>68.19567131024151</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -836,12 +784,6 @@
       <c r="B9" t="n">
         <v>24</v>
       </c>
-      <c r="C9" t="n">
-        <v>-17.29852123269536</v>
-      </c>
-      <c r="D9" t="n">
-        <v>70.23296113937573</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -850,12 +792,6 @@
       <c r="B10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
-        <v>-20.60376964184662</v>
-      </c>
-      <c r="D10" t="n">
-        <v>70.58581555609932</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -864,12 +800,6 @@
       <c r="B11" t="n">
         <v>26</v>
       </c>
-      <c r="C11" t="n">
-        <v>-16.74460266930739</v>
-      </c>
-      <c r="D11" t="n">
-        <v>71.82632753207119</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -878,12 +808,6 @@
       <c r="B12" t="n">
         <v>27</v>
       </c>
-      <c r="C12" t="n">
-        <v>-14.32877993647813</v>
-      </c>
-      <c r="D12" t="n">
-        <v>70.77597425706176</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -892,12 +816,6 @@
       <c r="B13" t="n">
         <v>28</v>
       </c>
-      <c r="C13" t="n">
-        <v>-14.98178647506619</v>
-      </c>
-      <c r="D13" t="n">
-        <v>73.21488194057063</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -906,12 +824,6 @@
       <c r="B14" t="n">
         <v>29</v>
       </c>
-      <c r="C14" t="n">
-        <v>-13.90531761314544</v>
-      </c>
-      <c r="D14" t="n">
-        <v>71.94385686426919</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -920,12 +832,6 @@
       <c r="B15" t="n">
         <v>31</v>
       </c>
-      <c r="C15" t="n">
-        <v>-12.83989271506105</v>
-      </c>
-      <c r="D15" t="n">
-        <v>77.3820528008935</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -934,12 +840,6 @@
       <c r="B16" t="n">
         <v>32</v>
       </c>
-      <c r="C16" t="n">
-        <v>-9.57561221294719</v>
-      </c>
-      <c r="D16" t="n">
-        <v>75.94951563564125</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -948,12 +848,6 @@
       <c r="B17" t="n">
         <v>33</v>
       </c>
-      <c r="C17" t="n">
-        <v>-10.44368536844111</v>
-      </c>
-      <c r="D17" t="n">
-        <v>78.45223969845455</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -962,12 +856,6 @@
       <c r="B18" t="n">
         <v>34</v>
       </c>
-      <c r="C18" t="n">
-        <v>-9.692426815856695</v>
-      </c>
-      <c r="D18" t="n">
-        <v>82.83392324319267</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -976,12 +864,6 @@
       <c r="B19" t="n">
         <v>39</v>
       </c>
-      <c r="C19" t="n">
-        <v>-4.935037193975331</v>
-      </c>
-      <c r="D19" t="n">
-        <v>82.19782239226636</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -990,12 +872,6 @@
       <c r="B20" t="n">
         <v>43</v>
       </c>
-      <c r="C20" t="n">
-        <v>-0.01254704164976103</v>
-      </c>
-      <c r="D20" t="n">
-        <v>87.52179427689703</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1004,12 +880,6 @@
       <c r="B21" t="n">
         <v>44</v>
       </c>
-      <c r="C21" t="n">
-        <v>-0.2329252439527258</v>
-      </c>
-      <c r="D21" t="n">
-        <v>86.95515888339557</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1018,12 +888,6 @@
       <c r="B22" t="n">
         <v>45</v>
       </c>
-      <c r="C22" t="n">
-        <v>3.787039643170443</v>
-      </c>
-      <c r="D22" t="n">
-        <v>89.8833937087519</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1032,12 +896,6 @@
       <c r="B23" t="n">
         <v>46</v>
       </c>
-      <c r="C23" t="n">
-        <v>3.656492289023299</v>
-      </c>
-      <c r="D23" t="n">
-        <v>90.39751129701759</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1046,12 +904,6 @@
       <c r="B24" t="n">
         <v>47</v>
       </c>
-      <c r="C24" t="n">
-        <v>5.636410044808433</v>
-      </c>
-      <c r="D24" t="n">
-        <v>93.53662739287346</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1060,12 +912,6 @@
       <c r="B25" t="n">
         <v>48</v>
       </c>
-      <c r="C25" t="n">
-        <v>5.203478211892017</v>
-      </c>
-      <c r="D25" t="n">
-        <v>93.4191313007082</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1074,12 +920,6 @@
       <c r="B26" t="n">
         <v>49</v>
       </c>
-      <c r="C26" t="n">
-        <v>4.36945653843658</v>
-      </c>
-      <c r="D26" t="n">
-        <v>92.86456735283494</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1088,12 +928,6 @@
       <c r="B27" t="n">
         <v>50</v>
       </c>
-      <c r="C27" t="n">
-        <v>5.41886036809309</v>
-      </c>
-      <c r="D27" t="n">
-        <v>91.96687802574476</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1101,12 +935,6 @@
       </c>
       <c r="B28" t="n">
         <v>51</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6.036771827386374</v>
-      </c>
-      <c r="D28" t="n">
-        <v>96.37047019007309</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CV2SCH63_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2SCH63_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -614,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,6 +698,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -701,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +742,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -734,7 +750,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -742,7 +758,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -750,7 +766,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -758,7 +774,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -766,7 +782,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -774,7 +790,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +798,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -790,7 +806,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +822,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -814,7 +830,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -822,7 +838,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -830,7 +846,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -838,7 +854,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -846,7 +862,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -854,7 +870,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -862,7 +878,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -870,71 +886,79 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45725.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>51</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
